--- a/Spreadsheets/feature_hists.xlsx
+++ b/Spreadsheets/feature_hists.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Github\EmailPaper\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kstraub/Documents/Research/EmailPaper/EmailPaper/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="trai_norm_email_features_100_0 " sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -712,7 +717,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -724,34 +729,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -816,7 +821,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,34 +833,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,7 +925,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,34 +937,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1029,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1036,34 +1041,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1133,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,34 +1145,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1237,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,34 +1249,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,12 +1292,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="277838560"/>
-        <c:axId val="277838000"/>
-        <c:axId val="364822304"/>
+        <c:axId val="2109571712"/>
+        <c:axId val="2109579840"/>
+        <c:axId val="2109585472"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="277838560"/>
+        <c:axId val="2109571712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1370,7 +1374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277838000"/>
+        <c:crossAx val="2109579840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1378,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277838000"/>
+        <c:axId val="2109579840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1418,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1448,12 +1451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277838560"/>
+        <c:crossAx val="2109571712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="364822304"/>
+        <c:axId val="2109585472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277838000"/>
+        <c:crossAx val="2109579840"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -1535,6 +1538,954 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trai_norm_email_features_100_0 '!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trai_norm_email_features_100_0 '!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2105793184"/>
+        <c:axId val="2105787216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2105793184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t>Normalized Unique Subjects Received</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105787216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105787216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105793184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1653,7 +2604,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1665,34 +2616,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,7 +2708,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,34 +2720,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,7 +2812,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,34 +2824,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,7 +2916,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,34 +2928,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +3020,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,34 +3032,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,7 +3124,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,34 +3136,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2228,12 +3179,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="194521904"/>
-        <c:axId val="194525264"/>
-        <c:axId val="376610240"/>
+        <c:axId val="2109634624"/>
+        <c:axId val="2109640608"/>
+        <c:axId val="2109646720"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="194521904"/>
+        <c:axId val="2109634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,7 +3277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194525264"/>
+        <c:crossAx val="2109640608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2334,7 +3285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194525264"/>
+        <c:axId val="2109640608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,12 +3392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194521904"/>
+        <c:crossAx val="2109634624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="376610240"/>
+        <c:axId val="2109646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +3433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194525264"/>
+        <c:crossAx val="2109640608"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -2494,6 +3445,954 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Director</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GradStudent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Operations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Outreach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Research</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2109094848"/>
+        <c:axId val="2109088896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2109094848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t>Normalized Full Graph Hubs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109088896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2109088896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2109094848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2571,7 +4470,592 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2595,6 +5079,511 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3099,6 +6088,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>369454</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69271</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3129,6 +6148,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>150090</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111759</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3183,9 +6232,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3218,9 +6267,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3402,16 +6451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +6507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3499,7 +6548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3540,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3557,7 +6606,7 @@
         <v>0.3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K11" si="2">COUNTIFS(D$2:D$200, "&lt;"&amp;$J4, D$2:D$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="K4:K10" si="2">COUNTIFS(D$2:D$200, "&lt;"&amp;$J4, D$2:D$200, "&gt;"&amp;$J3)</f>
         <v>1</v>
       </c>
       <c r="L4">
@@ -3581,7 +6630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3622,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3663,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3704,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3745,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3786,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3827,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3868,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3900,7 +6949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3914,7 +6963,7 @@
         <v>1.1218901E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3946,7 +6995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3960,7 +7009,7 @@
         <v>1.1680855E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3974,7 +7023,7 @@
         <v>1.3726655000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3988,7 +7037,7 @@
         <v>1.4386589999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4002,7 +7051,7 @@
         <v>1.4452583999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4016,7 +7065,7 @@
         <v>1.4452583999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4030,7 +7079,7 @@
         <v>1.550848E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4044,7 +7093,7 @@
         <v>1.6432390000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4058,7 +7107,7 @@
         <v>1.6564377000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4072,7 +7121,7 @@
         <v>1.7752259999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4086,7 +7135,7 @@
         <v>2.1183924E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4100,7 +7149,7 @@
         <v>2.4087639000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4114,7 +7163,7 @@
         <v>2.6067445000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4128,7 +7177,7 @@
         <v>2.7189334999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4142,7 +7191,7 @@
         <v>2.7849270999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4156,7 +7205,7 @@
         <v>2.8245231999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4170,7 +7219,7 @@
         <v>2.9235134999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4184,7 +7233,7 @@
         <v>2.9235134999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4198,7 +7247,7 @@
         <v>3.1478915000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4212,7 +7261,7 @@
         <v>3.2468818000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4226,7 +7275,7 @@
         <v>4.2301854E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4240,7 +7289,7 @@
         <v>4.4809609E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4254,7 +7303,7 @@
         <v>4.8109285000000002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4268,7 +7317,7 @@
         <v>5.9988120999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4282,7 +7331,7 @@
         <v>6.5399591000000007E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4296,7 +7345,7 @@
         <v>6.6587473999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4310,7 +7359,7 @@
         <v>7.1470995999999995E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4324,7 +7373,7 @@
         <v>7.3582788999999996E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4338,7 +7387,7 @@
         <v>7.6090542999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4352,7 +7401,7 @@
         <v>7.8400316999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4366,7 +7415,7 @@
         <v>8.1304031999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4380,7 +7429,7 @@
         <v>8.6847489E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4394,7 +7443,7 @@
         <v>9.0939088000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4408,7 +7457,7 @@
         <v>9.2852900000000002E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4422,7 +7471,7 @@
         <v>9.5294661000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4436,7 +7485,7 @@
         <v>9.5492642000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4450,7 +7499,7 @@
         <v>0.120636178</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4464,7 +7513,7 @@
         <v>0.126641589</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4478,7 +7527,7 @@
         <v>0.144987791</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4492,7 +7541,7 @@
         <v>0.17310103600000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4506,7 +7555,7 @@
         <v>0.187817594</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4520,7 +7569,7 @@
         <v>0.20134626799999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4534,7 +7583,7 @@
         <v>0.20655975700000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4548,7 +7597,7 @@
         <v>0.20893552400000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4562,7 +7611,7 @@
         <v>0.26060845999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4576,7 +7625,7 @@
         <v>0.27598495299999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4590,7 +7639,7 @@
         <v>0.28324424199999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4604,7 +7653,7 @@
         <v>0.28931564700000001</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4618,7 +7667,7 @@
         <v>0.295849007</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4632,7 +7681,7 @@
         <v>0.340130667</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4646,7 +7695,7 @@
         <v>0.35478123099999997</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4660,7 +7709,7 @@
         <v>0.36124859799999998</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4674,7 +7723,7 @@
         <v>0.37748300699999998</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4688,7 +7737,7 @@
         <v>0.38837194000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4702,7 +7751,7 @@
         <v>0.53111595099999998</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4716,7 +7765,7 @@
         <v>0.80789282699999998</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4740,16 +7789,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="Z8" zoomScale="125" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AO34" sqref="AO34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4796,7 +7845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4807,27 +7856,27 @@
         <v>4</v>
       </c>
       <c r="D2" t="str">
-        <f>IF($C2=D$1,$B2, "")</f>
+        <f t="shared" ref="D2:I11" si="0">IF($C2=D$1,$B2, "")</f>
         <v/>
       </c>
       <c r="E2">
-        <f>IF($C2=E$1,$B2, "")</f>
+        <f t="shared" si="0"/>
         <v>3.5773929659345302E-4</v>
       </c>
       <c r="F2" t="str">
-        <f>IF($C2=F$1,$B2, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f>IF($C2=G$1,$B2, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f>IF($C2=H$1,$B2, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I2" t="str">
-        <f>IF($C2=I$1,$B2, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J2">
@@ -4838,27 +7887,27 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:P2" si="0">COUNTIF(E$2:E$200,"&lt;"&amp;$J2)</f>
+        <f t="shared" ref="L2:P2" si="1">COUNTIF(E$2:E$200,"&lt;"&amp;$J2)</f>
         <v>30</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4869,27 +7918,27 @@
         <v>8</v>
       </c>
       <c r="D3" t="str">
-        <f>IF($C3=D$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E3" t="str">
-        <f>IF($C3=E$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F3" t="str">
-        <f>IF($C3=F$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f>IF($C3=G$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f>IF($C3=H$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I3">
-        <f>IF($C3=I$1,$B3, "")</f>
+        <f t="shared" si="0"/>
         <v>4.2790709486604898E-3</v>
       </c>
       <c r="J3">
@@ -4900,27 +7949,27 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:P3" si="1">COUNTIFS(E$2:E$200, "&lt;"&amp;$J3, E$2:E$200, "&gt;"&amp;$J2)</f>
+        <f t="shared" ref="L3:P3" si="2">COUNTIFS(E$2:E$200, "&lt;"&amp;$J3, E$2:E$200, "&gt;"&amp;$J2)</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4931,58 +7980,58 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>IF($C4=D$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v>2.17217791967237E-2</v>
       </c>
       <c r="E4" t="str">
-        <f>IF($C4=E$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F4" t="str">
-        <f>IF($C4=F$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f>IF($C4=G$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f>IF($C4=H$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f>IF($C4=I$1,$B4, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4">
         <v>0.3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K11" si="2">COUNTIFS(D$2:D$200, "&lt;"&amp;$J4, D$2:D$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="K4:K10" si="3">COUNTIFS(D$2:D$200, "&lt;"&amp;$J4, D$2:D$200, "&gt;"&amp;$J3)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4" si="3">COUNTIFS(E$2:E$200, "&lt;"&amp;$J4, E$2:E$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="L4" si="4">COUNTIFS(E$2:E$200, "&lt;"&amp;$J4, E$2:E$200, "&gt;"&amp;$J3)</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4" si="4">COUNTIFS(F$2:F$200, "&lt;"&amp;$J4, F$2:F$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="M4" si="5">COUNTIFS(F$2:F$200, "&lt;"&amp;$J4, F$2:F$200, "&gt;"&amp;$J3)</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4" si="5">COUNTIFS(G$2:G$200, "&lt;"&amp;$J4, G$2:G$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="N4" si="6">COUNTIFS(G$2:G$200, "&lt;"&amp;$J4, G$2:G$200, "&gt;"&amp;$J3)</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4" si="6">COUNTIFS(H$2:H$200, "&lt;"&amp;$J4, H$2:H$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="O4" si="7">COUNTIFS(H$2:H$200, "&lt;"&amp;$J4, H$2:H$200, "&gt;"&amp;$J3)</f>
         <v>3</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4" si="7">COUNTIFS(I$2:I$200, "&lt;"&amp;$J4, I$2:I$200, "&gt;"&amp;$J3)</f>
+        <f t="shared" ref="P4" si="8">COUNTIFS(I$2:I$200, "&lt;"&amp;$J4, I$2:I$200, "&gt;"&amp;$J3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4993,58 +8042,58 @@
         <v>4</v>
       </c>
       <c r="D5" t="str">
-        <f>IF($C5=D$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E5">
-        <f>IF($C5=E$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v>2.4957442281126601E-3</v>
       </c>
       <c r="F5" t="str">
-        <f>IF($C5=F$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>IF($C5=G$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f>IF($C5=H$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f>IF($C5=I$1,$B5, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5">
         <v>0.4</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5" si="8">COUNTIFS(E$2:E$200, "&lt;"&amp;$J5, E$2:E$200, "&gt;"&amp;$J4)</f>
+        <f t="shared" ref="L5" si="9">COUNTIFS(E$2:E$200, "&lt;"&amp;$J5, E$2:E$200, "&gt;"&amp;$J4)</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5" si="9">COUNTIFS(F$2:F$200, "&lt;"&amp;$J5, F$2:F$200, "&gt;"&amp;$J4)</f>
+        <f t="shared" ref="M5" si="10">COUNTIFS(F$2:F$200, "&lt;"&amp;$J5, F$2:F$200, "&gt;"&amp;$J4)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5" si="10">COUNTIFS(G$2:G$200, "&lt;"&amp;$J5, G$2:G$200, "&gt;"&amp;$J4)</f>
+        <f t="shared" ref="N5" si="11">COUNTIFS(G$2:G$200, "&lt;"&amp;$J5, G$2:G$200, "&gt;"&amp;$J4)</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5" si="11">COUNTIFS(H$2:H$200, "&lt;"&amp;$J5, H$2:H$200, "&gt;"&amp;$J4)</f>
+        <f t="shared" ref="O5" si="12">COUNTIFS(H$2:H$200, "&lt;"&amp;$J5, H$2:H$200, "&gt;"&amp;$J4)</f>
         <v>1</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5" si="12">COUNTIFS(I$2:I$200, "&lt;"&amp;$J5, I$2:I$200, "&gt;"&amp;$J4)</f>
+        <f t="shared" ref="P5" si="13">COUNTIFS(I$2:I$200, "&lt;"&amp;$J5, I$2:I$200, "&gt;"&amp;$J4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5055,58 +8104,58 @@
         <v>7</v>
       </c>
       <c r="D6" t="str">
-        <f>IF($C6=D$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF($C6=E$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF($C6=F$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>IF($C6=G$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H6">
-        <f>IF($C6=H$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v>0.236665854061892</v>
       </c>
       <c r="I6" t="str">
-        <f>IF($C6=I$1,$B6, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6" si="13">COUNTIFS(E$2:E$200, "&lt;"&amp;$J6, E$2:E$200, "&gt;"&amp;$J5)</f>
+        <f t="shared" ref="L6" si="14">COUNTIFS(E$2:E$200, "&lt;"&amp;$J6, E$2:E$200, "&gt;"&amp;$J5)</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6" si="14">COUNTIFS(F$2:F$200, "&lt;"&amp;$J6, F$2:F$200, "&gt;"&amp;$J5)</f>
+        <f t="shared" ref="M6" si="15">COUNTIFS(F$2:F$200, "&lt;"&amp;$J6, F$2:F$200, "&gt;"&amp;$J5)</f>
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6" si="15">COUNTIFS(G$2:G$200, "&lt;"&amp;$J6, G$2:G$200, "&gt;"&amp;$J5)</f>
+        <f t="shared" ref="N6" si="16">COUNTIFS(G$2:G$200, "&lt;"&amp;$J6, G$2:G$200, "&gt;"&amp;$J5)</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6" si="16">COUNTIFS(H$2:H$200, "&lt;"&amp;$J6, H$2:H$200, "&gt;"&amp;$J5)</f>
+        <f t="shared" ref="O6" si="17">COUNTIFS(H$2:H$200, "&lt;"&amp;$J6, H$2:H$200, "&gt;"&amp;$J5)</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6" si="17">COUNTIFS(I$2:I$200, "&lt;"&amp;$J6, I$2:I$200, "&gt;"&amp;$J5)</f>
+        <f t="shared" ref="P6" si="18">COUNTIFS(I$2:I$200, "&lt;"&amp;$J6, I$2:I$200, "&gt;"&amp;$J5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5117,58 +8166,58 @@
         <v>4</v>
       </c>
       <c r="D7" t="str">
-        <f>IF($C7=D$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E7">
-        <f>IF($C7=E$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v>1.11918647536069E-2</v>
       </c>
       <c r="F7" t="str">
-        <f>IF($C7=F$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>IF($C7=G$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>IF($C7=H$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f>IF($C7=I$1,$B7, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7">
         <v>0.6</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7" si="18">COUNTIFS(E$2:E$200, "&lt;"&amp;$J7, E$2:E$200, "&gt;"&amp;$J6)</f>
+        <f t="shared" ref="L7" si="19">COUNTIFS(E$2:E$200, "&lt;"&amp;$J7, E$2:E$200, "&gt;"&amp;$J6)</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7" si="19">COUNTIFS(F$2:F$200, "&lt;"&amp;$J7, F$2:F$200, "&gt;"&amp;$J6)</f>
+        <f t="shared" ref="M7" si="20">COUNTIFS(F$2:F$200, "&lt;"&amp;$J7, F$2:F$200, "&gt;"&amp;$J6)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7" si="20">COUNTIFS(G$2:G$200, "&lt;"&amp;$J7, G$2:G$200, "&gt;"&amp;$J6)</f>
+        <f t="shared" ref="N7" si="21">COUNTIFS(G$2:G$200, "&lt;"&amp;$J7, G$2:G$200, "&gt;"&amp;$J6)</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7" si="21">COUNTIFS(H$2:H$200, "&lt;"&amp;$J7, H$2:H$200, "&gt;"&amp;$J6)</f>
+        <f t="shared" ref="O7" si="22">COUNTIFS(H$2:H$200, "&lt;"&amp;$J7, H$2:H$200, "&gt;"&amp;$J6)</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7" si="22">COUNTIFS(I$2:I$200, "&lt;"&amp;$J7, I$2:I$200, "&gt;"&amp;$J6)</f>
+        <f t="shared" ref="P7" si="23">COUNTIFS(I$2:I$200, "&lt;"&amp;$J7, I$2:I$200, "&gt;"&amp;$J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5179,58 +8228,58 @@
         <v>4</v>
       </c>
       <c r="D8" t="str">
-        <f>IF($C8=D$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E8">
-        <f>IF($C8=E$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v>4.6507959279546698E-3</v>
       </c>
       <c r="F8" t="str">
-        <f>IF($C8=F$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f>IF($C8=G$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f>IF($C8=H$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f>IF($C8=I$1,$B8, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J8">
         <v>0.7</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" ref="L8" si="23">COUNTIFS(E$2:E$200, "&lt;"&amp;$J8, E$2:E$200, "&gt;"&amp;$J7)</f>
+        <f t="shared" ref="L8" si="24">COUNTIFS(E$2:E$200, "&lt;"&amp;$J8, E$2:E$200, "&gt;"&amp;$J7)</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" ref="M8" si="24">COUNTIFS(F$2:F$200, "&lt;"&amp;$J8, F$2:F$200, "&gt;"&amp;$J7)</f>
+        <f t="shared" ref="M8" si="25">COUNTIFS(F$2:F$200, "&lt;"&amp;$J8, F$2:F$200, "&gt;"&amp;$J7)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8" si="25">COUNTIFS(G$2:G$200, "&lt;"&amp;$J8, G$2:G$200, "&gt;"&amp;$J7)</f>
+        <f t="shared" ref="N8" si="26">COUNTIFS(G$2:G$200, "&lt;"&amp;$J8, G$2:G$200, "&gt;"&amp;$J7)</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8" si="26">COUNTIFS(H$2:H$200, "&lt;"&amp;$J8, H$2:H$200, "&gt;"&amp;$J7)</f>
+        <f t="shared" ref="O8" si="27">COUNTIFS(H$2:H$200, "&lt;"&amp;$J8, H$2:H$200, "&gt;"&amp;$J7)</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8" si="27">COUNTIFS(I$2:I$200, "&lt;"&amp;$J8, I$2:I$200, "&gt;"&amp;$J7)</f>
+        <f t="shared" ref="P8" si="28">COUNTIFS(I$2:I$200, "&lt;"&amp;$J8, I$2:I$200, "&gt;"&amp;$J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5241,58 +8290,58 @@
         <v>4</v>
       </c>
       <c r="D9" t="str">
-        <f>IF($C9=D$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E9">
-        <f>IF($C9=E$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v>1.1425941037887501E-2</v>
       </c>
       <c r="F9" t="str">
-        <f>IF($C9=F$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f>IF($C9=G$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f>IF($C9=H$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f>IF($C9=I$1,$B9, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J9">
         <v>0.8</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" ref="L9" si="28">COUNTIFS(E$2:E$200, "&lt;"&amp;$J9, E$2:E$200, "&gt;"&amp;$J8)</f>
+        <f t="shared" ref="L9" si="29">COUNTIFS(E$2:E$200, "&lt;"&amp;$J9, E$2:E$200, "&gt;"&amp;$J8)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9" si="29">COUNTIFS(F$2:F$200, "&lt;"&amp;$J9, F$2:F$200, "&gt;"&amp;$J8)</f>
+        <f t="shared" ref="M9" si="30">COUNTIFS(F$2:F$200, "&lt;"&amp;$J9, F$2:F$200, "&gt;"&amp;$J8)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9" si="30">COUNTIFS(G$2:G$200, "&lt;"&amp;$J9, G$2:G$200, "&gt;"&amp;$J8)</f>
+        <f t="shared" ref="N9" si="31">COUNTIFS(G$2:G$200, "&lt;"&amp;$J9, G$2:G$200, "&gt;"&amp;$J8)</f>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9" si="31">COUNTIFS(H$2:H$200, "&lt;"&amp;$J9, H$2:H$200, "&gt;"&amp;$J8)</f>
+        <f t="shared" ref="O9" si="32">COUNTIFS(H$2:H$200, "&lt;"&amp;$J9, H$2:H$200, "&gt;"&amp;$J8)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9" si="32">COUNTIFS(I$2:I$200, "&lt;"&amp;$J9, I$2:I$200, "&gt;"&amp;$J8)</f>
+        <f t="shared" ref="P9" si="33">COUNTIFS(I$2:I$200, "&lt;"&amp;$J9, I$2:I$200, "&gt;"&amp;$J8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5303,58 +8352,58 @@
         <v>4</v>
       </c>
       <c r="D10" t="str">
-        <f>IF($C10=D$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E10">
-        <f>IF($C10=E$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v>6.9737849460599502E-3</v>
       </c>
       <c r="F10" t="str">
-        <f>IF($C10=F$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f>IF($C10=G$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f>IF($C10=H$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f>IF($C10=I$1,$B10, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10">
         <v>0.9</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10" si="33">COUNTIFS(E$2:E$200, "&lt;"&amp;$J10, E$2:E$200, "&gt;"&amp;$J9)</f>
+        <f t="shared" ref="L10" si="34">COUNTIFS(E$2:E$200, "&lt;"&amp;$J10, E$2:E$200, "&gt;"&amp;$J9)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10" si="34">COUNTIFS(F$2:F$200, "&lt;"&amp;$J10, F$2:F$200, "&gt;"&amp;$J9)</f>
+        <f t="shared" ref="M10" si="35">COUNTIFS(F$2:F$200, "&lt;"&amp;$J10, F$2:F$200, "&gt;"&amp;$J9)</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10" si="35">COUNTIFS(G$2:G$200, "&lt;"&amp;$J10, G$2:G$200, "&gt;"&amp;$J9)</f>
+        <f t="shared" ref="N10" si="36">COUNTIFS(G$2:G$200, "&lt;"&amp;$J10, G$2:G$200, "&gt;"&amp;$J9)</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10" si="36">COUNTIFS(H$2:H$200, "&lt;"&amp;$J10, H$2:H$200, "&gt;"&amp;$J9)</f>
+        <f t="shared" ref="O10" si="37">COUNTIFS(H$2:H$200, "&lt;"&amp;$J10, H$2:H$200, "&gt;"&amp;$J9)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10" si="37">COUNTIFS(I$2:I$200, "&lt;"&amp;$J10, I$2:I$200, "&gt;"&amp;$J9)</f>
+        <f t="shared" ref="P10" si="38">COUNTIFS(I$2:I$200, "&lt;"&amp;$J10, I$2:I$200, "&gt;"&amp;$J9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5365,27 +8414,27 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <f>IF($C11=D$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v>0.32920032152723</v>
       </c>
       <c r="E11" t="str">
-        <f>IF($C11=E$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F11" t="str">
-        <f>IF($C11=F$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f>IF($C11=G$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f>IF($C11=H$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" t="str">
-        <f>IF($C11=I$1,$B11, "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11">
@@ -5396,27 +8445,27 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <f t="shared" ref="L11:P11" si="38">COUNTIFS(E$2:E$200, "&lt;="&amp;$J11, E$2:E$200, "&gt;"&amp;$J10)</f>
+        <f t="shared" ref="L11:P11" si="39">COUNTIFS(E$2:E$200, "&lt;="&amp;$J11, E$2:E$200, "&gt;"&amp;$J10)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5427,27 +8476,27 @@
         <v>8</v>
       </c>
       <c r="D12" t="str">
-        <f>IF($C12=D$1,$B12, "")</f>
+        <f t="shared" ref="D12:I21" si="40">IF($C12=D$1,$B12, "")</f>
         <v/>
       </c>
       <c r="E12" t="str">
-        <f>IF($C12=E$1,$B12, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF($C12=F$1,$B12, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f>IF($C12=G$1,$B12, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f>IF($C12=H$1,$B12, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I12">
-        <f>IF($C12=I$1,$B12, "")</f>
+        <f t="shared" si="40"/>
         <v>1.93862940406909E-2</v>
       </c>
       <c r="K12">
@@ -5469,7 +8518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5480,31 +8529,31 @@
         <v>4</v>
       </c>
       <c r="D13" t="str">
-        <f>IF($C13=D$1,$B13, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E13">
-        <f>IF($C13=E$1,$B13, "")</f>
+        <f t="shared" si="40"/>
         <v>2.06391873250136E-3</v>
       </c>
       <c r="F13" t="str">
-        <f>IF($C13=F$1,$B13, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f>IF($C13=G$1,$B13, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f>IF($C13=H$1,$B13, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f>IF($C13=I$1,$B13, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5515,27 +8564,27 @@
         <v>4</v>
       </c>
       <c r="D14" t="str">
-        <f>IF($C14=D$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E14">
-        <f>IF($C14=E$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v>5.3325383605213397E-3</v>
       </c>
       <c r="F14" t="str">
-        <f>IF($C14=F$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f>IF($C14=G$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f>IF($C14=H$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f>IF($C14=I$1,$B14, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K14">
@@ -5557,7 +8606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5568,31 +8617,31 @@
         <v>4</v>
       </c>
       <c r="D15" t="str">
-        <f>IF($C15=D$1,$B15, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E15">
-        <f>IF($C15=E$1,$B15, "")</f>
+        <f t="shared" si="40"/>
         <v>1.4474540489130799E-2</v>
       </c>
       <c r="F15" t="str">
-        <f>IF($C15=F$1,$B15, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f>IF($C15=G$1,$B15, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f>IF($C15=H$1,$B15, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f>IF($C15=I$1,$B15, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5603,31 +8652,31 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <f>IF($C16=D$1,$B16, "")</f>
+        <f t="shared" si="40"/>
         <v>0.26104636297153599</v>
       </c>
       <c r="E16" t="str">
-        <f>IF($C16=E$1,$B16, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IF($C16=F$1,$B16, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f>IF($C16=G$1,$B16, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f>IF($C16=H$1,$B16, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f>IF($C16=I$1,$B16, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5638,31 +8687,31 @@
         <v>4</v>
       </c>
       <c r="D17" t="str">
-        <f>IF($C17=D$1,$B17, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E17">
-        <f>IF($C17=E$1,$B17, "")</f>
+        <f t="shared" si="40"/>
         <v>1.66376701011056E-3</v>
       </c>
       <c r="F17" t="str">
-        <f>IF($C17=F$1,$B17, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f>IF($C17=G$1,$B17, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f>IF($C17=H$1,$B17, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f>IF($C17=I$1,$B17, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5673,31 +8722,31 @@
         <v>5</v>
       </c>
       <c r="D18" t="str">
-        <f>IF($C18=D$1,$B18, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f>IF($C18=E$1,$B18, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F18">
-        <f>IF($C18=F$1,$B18, "")</f>
+        <f t="shared" si="40"/>
         <v>0.117660156038409</v>
       </c>
       <c r="G18" t="str">
-        <f>IF($C18=G$1,$B18, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f>IF($C18=H$1,$B18, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f>IF($C18=I$1,$B18, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5708,31 +8757,31 @@
         <v>8</v>
       </c>
       <c r="D19" t="str">
-        <f>IF($C19=D$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f>IF($C19=E$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f>IF($C19=F$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f>IF($C19=G$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f>IF($C19=H$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I19">
-        <f>IF($C19=I$1,$B19, "")</f>
+        <f t="shared" si="40"/>
         <v>1.3818710825466899E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5743,31 +8792,31 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <f>IF($C20=D$1,$B20, "")</f>
+        <f t="shared" si="40"/>
         <v>0.11140882273625</v>
       </c>
       <c r="E20" t="str">
-        <f>IF($C20=E$1,$B20, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F20" t="str">
-        <f>IF($C20=F$1,$B20, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f>IF($C20=G$1,$B20, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f>IF($C20=H$1,$B20, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f>IF($C20=I$1,$B20, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5778,31 +8827,31 @@
         <v>4</v>
       </c>
       <c r="D21" t="str">
-        <f>IF($C21=D$1,$B21, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E21">
-        <f>IF($C21=E$1,$B21, "")</f>
+        <f t="shared" si="40"/>
         <v>1.5793829989408799E-3</v>
       </c>
       <c r="F21" t="str">
-        <f>IF($C21=F$1,$B21, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f>IF($C21=G$1,$B21, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f>IF($C21=H$1,$B21, "")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f>IF($C21=I$1,$B21, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5813,31 +8862,31 @@
         <v>4</v>
       </c>
       <c r="D22" t="str">
-        <f>IF($C22=D$1,$B22, "")</f>
+        <f t="shared" ref="D22:I31" si="41">IF($C22=D$1,$B22, "")</f>
         <v/>
       </c>
       <c r="E22">
-        <f>IF($C22=E$1,$B22, "")</f>
+        <f t="shared" si="41"/>
         <v>2.13920023213858E-3</v>
       </c>
       <c r="F22" t="str">
-        <f>IF($C22=F$1,$B22, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f>IF($C22=G$1,$B22, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f>IF($C22=H$1,$B22, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f>IF($C22=I$1,$B22, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5848,31 +8897,31 @@
         <v>4</v>
       </c>
       <c r="D23" t="str">
-        <f>IF($C23=D$1,$B23, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E23">
-        <f>IF($C23=E$1,$B23, "")</f>
+        <f t="shared" si="41"/>
         <v>7.4944025157160201E-3</v>
       </c>
       <c r="F23" t="str">
-        <f>IF($C23=F$1,$B23, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f>IF($C23=G$1,$B23, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f>IF($C23=H$1,$B23, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f>IF($C23=I$1,$B23, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5883,31 +8932,31 @@
         <v>8</v>
       </c>
       <c r="D24" t="str">
-        <f>IF($C24=D$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E24" t="str">
-        <f>IF($C24=E$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F24" t="str">
-        <f>IF($C24=F$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f>IF($C24=G$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f>IF($C24=H$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I24">
-        <f>IF($C24=I$1,$B24, "")</f>
+        <f t="shared" si="41"/>
         <v>4.2165382952257399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5918,31 +8967,31 @@
         <v>4</v>
       </c>
       <c r="D25" t="str">
-        <f>IF($C25=D$1,$B25, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E25">
-        <f>IF($C25=E$1,$B25, "")</f>
+        <f t="shared" si="41"/>
         <v>4.2083535191199499E-3</v>
       </c>
       <c r="F25" t="str">
-        <f>IF($C25=F$1,$B25, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f>IF($C25=G$1,$B25, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f>IF($C25=H$1,$B25, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f>IF($C25=I$1,$B25, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5953,31 +9002,31 @@
         <v>4</v>
       </c>
       <c r="D26" t="str">
-        <f>IF($C26=D$1,$B26, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E26">
-        <f>IF($C26=E$1,$B26, "")</f>
+        <f t="shared" si="41"/>
         <v>2.3339411535396402E-3</v>
       </c>
       <c r="F26" t="str">
-        <f>IF($C26=F$1,$B26, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f>IF($C26=G$1,$B26, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f>IF($C26=H$1,$B26, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f>IF($C26=I$1,$B26, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5988,31 +9037,31 @@
         <v>4</v>
       </c>
       <c r="D27" t="str">
-        <f>IF($C27=D$1,$B27, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E27">
-        <f>IF($C27=E$1,$B27, "")</f>
+        <f t="shared" si="41"/>
         <v>4.2380488245331296E-3</v>
       </c>
       <c r="F27" t="str">
-        <f>IF($C27=F$1,$B27, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f>IF($C27=G$1,$B27, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f>IF($C27=H$1,$B27, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f>IF($C27=I$1,$B27, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6023,31 +9072,31 @@
         <v>8</v>
       </c>
       <c r="D28" t="str">
-        <f>IF($C28=D$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E28" t="str">
-        <f>IF($C28=E$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f>IF($C28=F$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f>IF($C28=G$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f>IF($C28=H$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I28">
-        <f>IF($C28=I$1,$B28, "")</f>
+        <f t="shared" si="41"/>
         <v>1.0877350639582801E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6058,31 +9107,31 @@
         <v>4</v>
       </c>
       <c r="D29" t="str">
-        <f>IF($C29=D$1,$B29, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E29">
-        <f>IF($C29=E$1,$B29, "")</f>
+        <f t="shared" si="41"/>
         <v>1.1029948977641899E-2</v>
       </c>
       <c r="F29" t="str">
-        <f>IF($C29=F$1,$B29, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f>IF($C29=G$1,$B29, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f>IF($C29=H$1,$B29, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f>IF($C29=I$1,$B29, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6093,31 +9142,31 @@
         <v>8</v>
       </c>
       <c r="D30" t="str">
-        <f>IF($C30=D$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f>IF($C30=E$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF($C30=F$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f>IF($C30=G$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f>IF($C30=H$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I30">
-        <f>IF($C30=I$1,$B30, "")</f>
+        <f t="shared" si="41"/>
         <v>0.114332943415414</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6128,31 +9177,31 @@
         <v>8</v>
       </c>
       <c r="D31" t="str">
-        <f>IF($C31=D$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="E31" t="str">
-        <f>IF($C31=E$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f>IF($C31=F$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f>IF($C31=G$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f>IF($C31=H$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="I31">
-        <f>IF($C31=I$1,$B31, "")</f>
+        <f t="shared" si="41"/>
         <v>2.80888420339848E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6163,31 +9212,31 @@
         <v>4</v>
       </c>
       <c r="D32" t="str">
-        <f>IF($C32=D$1,$B32, "")</f>
+        <f t="shared" ref="D32:I41" si="42">IF($C32=D$1,$B32, "")</f>
         <v/>
       </c>
       <c r="E32">
-        <f>IF($C32=E$1,$B32, "")</f>
+        <f t="shared" si="42"/>
         <v>1.1190600100529099E-2</v>
       </c>
       <c r="F32" t="str">
-        <f>IF($C32=F$1,$B32, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f>IF($C32=G$1,$B32, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f>IF($C32=H$1,$B32, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f>IF($C32=I$1,$B32, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6198,31 +9247,31 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <f>IF($C33=D$1,$B33, "")</f>
+        <f t="shared" si="42"/>
         <v>1.14279509795558E-2</v>
       </c>
       <c r="E33" t="str">
-        <f>IF($C33=E$1,$B33, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f>IF($C33=F$1,$B33, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f>IF($C33=G$1,$B33, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f>IF($C33=H$1,$B33, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f>IF($C33=I$1,$B33, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6233,31 +9282,31 @@
         <v>7</v>
       </c>
       <c r="D34" t="str">
-        <f>IF($C34=D$1,$B34, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f>IF($C34=E$1,$B34, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f>IF($C34=F$1,$B34, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f>IF($C34=G$1,$B34, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H34">
-        <f>IF($C34=H$1,$B34, "")</f>
+        <f t="shared" si="42"/>
         <v>0.32613981452918001</v>
       </c>
       <c r="I34" t="str">
-        <f>IF($C34=I$1,$B34, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6268,31 +9317,31 @@
         <v>5</v>
       </c>
       <c r="D35" t="str">
-        <f>IF($C35=D$1,$B35, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E35" t="str">
-        <f>IF($C35=E$1,$B35, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F35">
-        <f>IF($C35=F$1,$B35, "")</f>
+        <f t="shared" si="42"/>
         <v>4.6256371550530202E-2</v>
       </c>
       <c r="G35" t="str">
-        <f>IF($C35=G$1,$B35, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f>IF($C35=H$1,$B35, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f>IF($C35=I$1,$B35, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6303,31 +9352,31 @@
         <v>7</v>
       </c>
       <c r="D36" t="str">
-        <f>IF($C36=D$1,$B36, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f>IF($C36=E$1,$B36, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f>IF($C36=F$1,$B36, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f>IF($C36=G$1,$B36, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H36">
-        <f>IF($C36=H$1,$B36, "")</f>
+        <f t="shared" si="42"/>
         <v>4.5249274545997399E-2</v>
       </c>
       <c r="I36" t="str">
-        <f>IF($C36=I$1,$B36, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6338,31 +9387,31 @@
         <v>8</v>
       </c>
       <c r="D37" t="str">
-        <f>IF($C37=D$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f>IF($C37=E$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f>IF($C37=F$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f>IF($C37=G$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f>IF($C37=H$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I37">
-        <f>IF($C37=I$1,$B37, "")</f>
+        <f t="shared" si="42"/>
         <v>0.310682673646834</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6373,31 +9422,31 @@
         <v>8</v>
       </c>
       <c r="D38" t="str">
-        <f>IF($C38=D$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f>IF($C38=E$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f>IF($C38=F$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G38" t="str">
-        <f>IF($C38=G$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f>IF($C38=H$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I38">
-        <f>IF($C38=I$1,$B38, "")</f>
+        <f t="shared" si="42"/>
         <v>2.5187556858174299E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6408,31 +9457,31 @@
         <v>4</v>
       </c>
       <c r="D39" t="str">
-        <f>IF($C39=D$1,$B39, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E39">
-        <f>IF($C39=E$1,$B39, "")</f>
+        <f t="shared" si="42"/>
         <v>1.3814289476031399E-3</v>
       </c>
       <c r="F39" t="str">
-        <f>IF($C39=F$1,$B39, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G39" t="str">
-        <f>IF($C39=G$1,$B39, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f>IF($C39=H$1,$B39, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f>IF($C39=I$1,$B39, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6443,31 +9492,31 @@
         <v>6</v>
       </c>
       <c r="D40" t="str">
-        <f>IF($C40=D$1,$B40, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f>IF($C40=E$1,$B40, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f>IF($C40=F$1,$B40, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G40">
-        <f>IF($C40=G$1,$B40, "")</f>
+        <f t="shared" si="42"/>
         <v>0.10488047301450799</v>
       </c>
       <c r="H40" t="str">
-        <f>IF($C40=H$1,$B40, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f>IF($C40=I$1,$B40, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6478,31 +9527,31 @@
         <v>8</v>
       </c>
       <c r="D41" t="str">
-        <f>IF($C41=D$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E41" t="str">
-        <f>IF($C41=E$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="F41" t="str">
-        <f>IF($C41=F$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="G41" t="str">
-        <f>IF($C41=G$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f>IF($C41=H$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I41">
-        <f>IF($C41=I$1,$B41, "")</f>
+        <f t="shared" si="42"/>
         <v>4.6128901218216799E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6513,31 +9562,31 @@
         <v>6</v>
       </c>
       <c r="D42" t="str">
-        <f>IF($C42=D$1,$B42, "")</f>
+        <f t="shared" ref="D42:I51" si="43">IF($C42=D$1,$B42, "")</f>
         <v/>
       </c>
       <c r="E42" t="str">
-        <f>IF($C42=E$1,$B42, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F42" t="str">
-        <f>IF($C42=F$1,$B42, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G42">
-        <f>IF($C42=G$1,$B42, "")</f>
+        <f t="shared" si="43"/>
         <v>1.5888950419881101E-2</v>
       </c>
       <c r="H42" t="str">
-        <f>IF($C42=H$1,$B42, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f>IF($C42=I$1,$B42, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6548,31 +9597,31 @@
         <v>5</v>
       </c>
       <c r="D43" t="str">
-        <f>IF($C43=D$1,$B43, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E43" t="str">
-        <f>IF($C43=E$1,$B43, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F43">
-        <f>IF($C43=F$1,$B43, "")</f>
+        <f t="shared" si="43"/>
         <v>0.42574939225684999</v>
       </c>
       <c r="G43" t="str">
-        <f>IF($C43=G$1,$B43, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f>IF($C43=H$1,$B43, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f>IF($C43=I$1,$B43, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6583,31 +9632,31 @@
         <v>4</v>
       </c>
       <c r="D44" t="str">
-        <f>IF($C44=D$1,$B44, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E44">
-        <f>IF($C44=E$1,$B44, "")</f>
+        <f t="shared" si="43"/>
         <v>3.6342003542589102E-3</v>
       </c>
       <c r="F44" t="str">
-        <f>IF($C44=F$1,$B44, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G44" t="str">
-        <f>IF($C44=G$1,$B44, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f>IF($C44=H$1,$B44, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f>IF($C44=I$1,$B44, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6618,31 +9667,31 @@
         <v>8</v>
       </c>
       <c r="D45" t="str">
-        <f>IF($C45=D$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E45" t="str">
-        <f>IF($C45=E$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F45" t="str">
-        <f>IF($C45=F$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f>IF($C45=G$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f>IF($C45=H$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I45">
-        <f>IF($C45=I$1,$B45, "")</f>
+        <f t="shared" si="43"/>
         <v>2.1429012624445401E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6653,31 +9702,31 @@
         <v>4</v>
       </c>
       <c r="D46" t="str">
-        <f>IF($C46=D$1,$B46, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E46">
-        <f>IF($C46=E$1,$B46, "")</f>
+        <f t="shared" si="43"/>
         <v>1.67697485241623E-3</v>
       </c>
       <c r="F46" t="str">
-        <f>IF($C46=F$1,$B46, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G46" t="str">
-        <f>IF($C46=G$1,$B46, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f>IF($C46=H$1,$B46, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f>IF($C46=I$1,$B46, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6688,31 +9737,31 @@
         <v>5</v>
       </c>
       <c r="D47" t="str">
-        <f>IF($C47=D$1,$B47, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f>IF($C47=E$1,$B47, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F47">
-        <f>IF($C47=F$1,$B47, "")</f>
+        <f t="shared" si="43"/>
         <v>9.1350636796547799E-2</v>
       </c>
       <c r="G47" t="str">
-        <f>IF($C47=G$1,$B47, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f>IF($C47=H$1,$B47, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f>IF($C47=I$1,$B47, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6723,31 +9772,31 @@
         <v>8</v>
       </c>
       <c r="D48" t="str">
-        <f>IF($C48=D$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E48" t="str">
-        <f>IF($C48=E$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F48" t="str">
-        <f>IF($C48=F$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f>IF($C48=G$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f>IF($C48=H$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I48">
-        <f>IF($C48=I$1,$B48, "")</f>
+        <f t="shared" si="43"/>
         <v>1.6645596615569601E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6758,31 +9807,31 @@
         <v>4</v>
       </c>
       <c r="D49" t="str">
-        <f>IF($C49=D$1,$B49, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E49">
-        <f>IF($C49=E$1,$B49, "")</f>
+        <f t="shared" si="43"/>
         <v>1.08874616998006E-2</v>
       </c>
       <c r="F49" t="str">
-        <f>IF($C49=F$1,$B49, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G49" t="str">
-        <f>IF($C49=G$1,$B49, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f>IF($C49=H$1,$B49, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f>IF($C49=I$1,$B49, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6793,31 +9842,31 @@
         <v>5</v>
       </c>
       <c r="D50" t="str">
-        <f>IF($C50=D$1,$B50, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E50" t="str">
-        <f>IF($C50=E$1,$B50, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F50">
-        <f>IF($C50=F$1,$B50, "")</f>
+        <f t="shared" si="43"/>
         <v>3.7011316688004198E-2</v>
       </c>
       <c r="G50" t="str">
-        <f>IF($C50=G$1,$B50, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f>IF($C50=H$1,$B50, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f>IF($C50=I$1,$B50, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6828,31 +9877,31 @@
         <v>8</v>
       </c>
       <c r="D51" t="str">
-        <f>IF($C51=D$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E51" t="str">
-        <f>IF($C51=E$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f>IF($C51=F$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f>IF($C51=G$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f>IF($C51=H$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I51">
-        <f>IF($C51=I$1,$B51, "")</f>
+        <f t="shared" si="43"/>
         <v>0.24545710970471199</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6863,31 +9912,31 @@
         <v>4</v>
       </c>
       <c r="D52" t="str">
-        <f>IF($C52=D$1,$B52, "")</f>
+        <f t="shared" ref="D52:I61" si="44">IF($C52=D$1,$B52, "")</f>
         <v/>
       </c>
       <c r="E52">
-        <f>IF($C52=E$1,$B52, "")</f>
+        <f t="shared" si="44"/>
         <v>2.2450468370191101E-2</v>
       </c>
       <c r="F52" t="str">
-        <f>IF($C52=F$1,$B52, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G52" t="str">
-        <f>IF($C52=G$1,$B52, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f>IF($C52=H$1,$B52, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f>IF($C52=I$1,$B52, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6898,31 +9947,31 @@
         <v>4</v>
       </c>
       <c r="D53" t="str">
-        <f>IF($C53=D$1,$B53, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E53">
-        <f>IF($C53=E$1,$B53, "")</f>
+        <f t="shared" si="44"/>
         <v>2.7063831391663101E-3</v>
       </c>
       <c r="F53" t="str">
-        <f>IF($C53=F$1,$B53, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G53" t="str">
-        <f>IF($C53=G$1,$B53, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f>IF($C53=H$1,$B53, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f>IF($C53=I$1,$B53, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6933,31 +9982,31 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <f>IF($C54=D$1,$B54, "")</f>
+        <f t="shared" si="44"/>
         <v>0.53035519482763904</v>
       </c>
       <c r="E54" t="str">
-        <f>IF($C54=E$1,$B54, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f>IF($C54=F$1,$B54, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G54" t="str">
-        <f>IF($C54=G$1,$B54, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f>IF($C54=H$1,$B54, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f>IF($C54=I$1,$B54, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6968,31 +10017,31 @@
         <v>4</v>
       </c>
       <c r="D55" t="str">
-        <f>IF($C55=D$1,$B55, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E55">
-        <f>IF($C55=E$1,$B55, "")</f>
+        <f t="shared" si="44"/>
         <v>9.2268506454204501E-4</v>
       </c>
       <c r="F55" t="str">
-        <f>IF($C55=F$1,$B55, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G55" t="str">
-        <f>IF($C55=G$1,$B55, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f>IF($C55=H$1,$B55, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f>IF($C55=I$1,$B55, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7003,31 +10052,31 @@
         <v>7</v>
       </c>
       <c r="D56" t="str">
-        <f>IF($C56=D$1,$B56, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f>IF($C56=E$1,$B56, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f>IF($C56=F$1,$B56, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G56" t="str">
-        <f>IF($C56=G$1,$B56, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H56">
-        <f>IF($C56=H$1,$B56, "")</f>
+        <f t="shared" si="44"/>
         <v>0.23435430382334499</v>
       </c>
       <c r="I56" t="str">
-        <f>IF($C56=I$1,$B56, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7038,31 +10087,31 @@
         <v>8</v>
       </c>
       <c r="D57" t="str">
-        <f>IF($C57=D$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f>IF($C57=E$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f>IF($C57=F$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G57" t="str">
-        <f>IF($C57=G$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f>IF($C57=H$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I57">
-        <f>IF($C57=I$1,$B57, "")</f>
+        <f t="shared" si="44"/>
         <v>0.14140857486250299</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7073,31 +10122,31 @@
         <v>4</v>
       </c>
       <c r="D58" t="str">
-        <f>IF($C58=D$1,$B58, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E58">
-        <f>IF($C58=E$1,$B58, "")</f>
+        <f t="shared" si="44"/>
         <v>4.8486641141391902E-3</v>
       </c>
       <c r="F58" t="str">
-        <f>IF($C58=F$1,$B58, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G58" t="str">
-        <f>IF($C58=G$1,$B58, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f>IF($C58=H$1,$B58, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f>IF($C58=I$1,$B58, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7108,31 +10157,31 @@
         <v>5</v>
       </c>
       <c r="D59" t="str">
-        <f>IF($C59=D$1,$B59, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E59" t="str">
-        <f>IF($C59=E$1,$B59, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F59">
-        <f>IF($C59=F$1,$B59, "")</f>
+        <f t="shared" si="44"/>
         <v>2.15452105860118E-2</v>
       </c>
       <c r="G59" t="str">
-        <f>IF($C59=G$1,$B59, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f>IF($C59=H$1,$B59, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f>IF($C59=I$1,$B59, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7143,31 +10192,31 @@
         <v>3</v>
       </c>
       <c r="D60">
-        <f>IF($C60=D$1,$B60, "")</f>
+        <f t="shared" si="44"/>
         <v>0.68452635559303898</v>
       </c>
       <c r="E60" t="str">
-        <f>IF($C60=E$1,$B60, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f>IF($C60=F$1,$B60, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f>IF($C60=G$1,$B60, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f>IF($C60=H$1,$B60, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f>IF($C60=I$1,$B60, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7178,31 +10227,31 @@
         <v>4</v>
       </c>
       <c r="D61" t="str">
-        <f>IF($C61=D$1,$B61, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E61">
-        <f>IF($C61=E$1,$B61, "")</f>
+        <f t="shared" si="44"/>
         <v>1.5904853228614499E-2</v>
       </c>
       <c r="F61" t="str">
-        <f>IF($C61=F$1,$B61, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G61" t="str">
-        <f>IF($C61=G$1,$B61, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f>IF($C61=H$1,$B61, "")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f>IF($C61=I$1,$B61, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7213,31 +10262,31 @@
         <v>7</v>
       </c>
       <c r="D62" t="str">
-        <f>IF($C62=D$1,$B62, "")</f>
+        <f t="shared" ref="D62:I70" si="45">IF($C62=D$1,$B62, "")</f>
         <v/>
       </c>
       <c r="E62" t="str">
-        <f>IF($C62=E$1,$B62, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F62" t="str">
-        <f>IF($C62=F$1,$B62, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G62" t="str">
-        <f>IF($C62=G$1,$B62, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H62">
-        <f>IF($C62=H$1,$B62, "")</f>
+        <f t="shared" si="45"/>
         <v>0.24329578629104401</v>
       </c>
       <c r="I62" t="str">
-        <f>IF($C62=I$1,$B62, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7248,31 +10297,31 @@
         <v>4</v>
       </c>
       <c r="D63" t="str">
-        <f>IF($C63=D$1,$B63, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E63">
-        <f>IF($C63=E$1,$B63, "")</f>
+        <f t="shared" si="45"/>
         <v>1.8703152530751301E-2</v>
       </c>
       <c r="F63" t="str">
-        <f>IF($C63=F$1,$B63, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G63" t="str">
-        <f>IF($C63=G$1,$B63, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f>IF($C63=H$1,$B63, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f>IF($C63=I$1,$B63, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7283,31 +10332,31 @@
         <v>5</v>
       </c>
       <c r="D64" t="str">
-        <f>IF($C64=D$1,$B64, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E64" t="str">
-        <f>IF($C64=E$1,$B64, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F64">
-        <f>IF($C64=F$1,$B64, "")</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G64" t="str">
-        <f>IF($C64=G$1,$B64, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f>IF($C64=H$1,$B64, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f>IF($C64=I$1,$B64, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7318,31 +10367,31 @@
         <v>8</v>
       </c>
       <c r="D65" t="str">
-        <f>IF($C65=D$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E65" t="str">
-        <f>IF($C65=E$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F65" t="str">
-        <f>IF($C65=F$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G65" t="str">
-        <f>IF($C65=G$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f>IF($C65=H$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I65">
-        <f>IF($C65=I$1,$B65, "")</f>
+        <f t="shared" si="45"/>
         <v>2.7573244271624501E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7353,31 +10402,31 @@
         <v>3</v>
       </c>
       <c r="D66">
-        <f>IF($C66=D$1,$B66, "")</f>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="E66" t="str">
-        <f>IF($C66=E$1,$B66, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F66" t="str">
-        <f>IF($C66=F$1,$B66, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G66" t="str">
-        <f>IF($C66=G$1,$B66, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f>IF($C66=H$1,$B66, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f>IF($C66=I$1,$B66, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7388,31 +10437,31 @@
         <v>8</v>
       </c>
       <c r="D67" t="str">
-        <f>IF($C67=D$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E67" t="str">
-        <f>IF($C67=E$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F67" t="str">
-        <f>IF($C67=F$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G67" t="str">
-        <f>IF($C67=G$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f>IF($C67=H$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I67">
-        <f>IF($C67=I$1,$B67, "")</f>
+        <f t="shared" si="45"/>
         <v>1.4313136431762999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7423,31 +10472,31 @@
         <v>4</v>
       </c>
       <c r="D68" t="str">
-        <f>IF($C68=D$1,$B68, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E68">
-        <f>IF($C68=E$1,$B68, "")</f>
+        <f t="shared" si="45"/>
         <v>8.81803274854525E-4</v>
       </c>
       <c r="F68" t="str">
-        <f>IF($C68=F$1,$B68, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G68" t="str">
-        <f>IF($C68=G$1,$B68, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f>IF($C68=H$1,$B68, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f>IF($C68=I$1,$B68, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7458,31 +10507,31 @@
         <v>4</v>
       </c>
       <c r="D69" t="str">
-        <f>IF($C69=D$1,$B69, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E69">
-        <f>IF($C69=E$1,$B69, "")</f>
+        <f t="shared" si="45"/>
         <v>8.2600699468588195E-4</v>
       </c>
       <c r="F69" t="str">
-        <f>IF($C69=F$1,$B69, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G69" t="str">
-        <f>IF($C69=G$1,$B69, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f>IF($C69=H$1,$B69, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I69" t="str">
-        <f>IF($C69=I$1,$B69, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7493,27 +10542,27 @@
         <v>8</v>
       </c>
       <c r="D70" t="str">
-        <f>IF($C70=D$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E70" t="str">
-        <f>IF($C70=E$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="F70" t="str">
-        <f>IF($C70=F$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="G70" t="str">
-        <f>IF($C70=G$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f>IF($C70=H$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I70">
-        <f>IF($C70=I$1,$B70, "")</f>
+        <f t="shared" si="45"/>
         <v>3.5335355463717397E-2</v>
       </c>
     </row>

--- a/Spreadsheets/feature_hists.xlsx
+++ b/Spreadsheets/feature_hists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trai_norm_email_features_100_0 " sheetId="1" r:id="rId1"/>
@@ -1292,12 +1292,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2109571712"/>
-        <c:axId val="2109579840"/>
-        <c:axId val="2109585472"/>
+        <c:axId val="2100260800"/>
+        <c:axId val="2100268928"/>
+        <c:axId val="2100274560"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2109571712"/>
+        <c:axId val="2100260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109579840"/>
+        <c:crossAx val="2100268928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,7 +1382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109579840"/>
+        <c:axId val="2100268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,12 +1451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109571712"/>
+        <c:crossAx val="2100260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2109585472"/>
+        <c:axId val="2100274560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109579840"/>
+        <c:crossAx val="2100268928"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -2186,11 +2186,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2105793184"/>
-        <c:axId val="2105787216"/>
+        <c:axId val="2099378208"/>
+        <c:axId val="2099372240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2105793184"/>
+        <c:axId val="2099378208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105787216"/>
+        <c:crossAx val="2099372240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2297,7 +2297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105787216"/>
+        <c:axId val="2099372240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105793184"/>
+        <c:crossAx val="2099378208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3179,12 +3179,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="2109634624"/>
-        <c:axId val="2109640608"/>
-        <c:axId val="2109646720"/>
+        <c:axId val="2098735968"/>
+        <c:axId val="2098741952"/>
+        <c:axId val="2098748064"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2109634624"/>
+        <c:axId val="2098735968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,7 +3277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109640608"/>
+        <c:crossAx val="2098741952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3285,7 +3285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109640608"/>
+        <c:axId val="2098741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,12 +3392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109634624"/>
+        <c:crossAx val="2098735968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="2109646720"/>
+        <c:axId val="2098748064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109640608"/>
+        <c:crossAx val="2098741952"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
       </c:serAx>
@@ -4131,11 +4131,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2109094848"/>
-        <c:axId val="2109088896"/>
+        <c:axId val="2099262208"/>
+        <c:axId val="2099256256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2109094848"/>
+        <c:axId val="2099262208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4234,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109088896"/>
+        <c:crossAx val="2099256256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4242,7 +4242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2109088896"/>
+        <c:axId val="2099256256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2109094848"/>
+        <c:crossAx val="2099262208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6157,8 +6157,8 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2308</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
@@ -6451,7 +6451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="AI26" sqref="AI26"/>
     </sheetView>
   </sheetViews>
@@ -7789,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="Z8" zoomScale="125" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AO34" sqref="AO34"/>
+    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="125" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
